--- a/MEDIA/2998_拉亞直營營業額(2020-08-01~2020-08-31).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-08-01~2020-08-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,12 +500,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,34 +514,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1080</v>
+        <v>23020</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="F3" t="n">
-        <v>135</v>
+        <v>12130</v>
       </c>
       <c r="G3" t="n">
-        <v>12.5</v>
+        <v>52.7</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I3" t="n">
-        <v>945</v>
+        <v>5435</v>
       </c>
       <c r="J3" t="n">
-        <v>87.5</v>
+        <v>23.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,21 +580,21 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="AA3" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2571</v>
+        <v>25215</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>1611</v>
+        <v>11730</v>
       </c>
       <c r="G4" t="n">
-        <v>62.7</v>
+        <v>46.5</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I4" t="n">
-        <v>800</v>
+        <v>6850</v>
       </c>
       <c r="J4" t="n">
-        <v>31.1</v>
+        <v>27.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2075</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2360</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>160</v>
+        <v>2200</v>
       </c>
       <c r="V4" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,91 +669,2672 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="AA4" t="n">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17070</v>
+      </c>
+      <c r="E5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5245</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6295</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>645</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1955</v>
+      </c>
+      <c r="S5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2930</v>
+      </c>
+      <c r="V5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>152</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>17905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7245</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1320</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2075</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1850</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>19050</v>
+      </c>
+      <c r="E7" t="n">
+        <v>86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9155</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6445</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>580</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1845</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>193</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>21530</v>
+      </c>
+      <c r="E8" t="n">
+        <v>105</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10530</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>79</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6835</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1565</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1010</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1590</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>213</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>19210</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10045</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>86</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6225</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>915</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1495</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>530</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>194</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>24375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12780</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>72</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6915</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>520</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1265</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>18</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2895</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>23905</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12115</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1460</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3035</v>
+      </c>
+      <c r="S11" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>167</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>18603</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10078</v>
+      </c>
+      <c r="G12" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>74</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4820</v>
+      </c>
+      <c r="J12" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1380</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>325</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>12</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>198</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>17750</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9080</v>
+      </c>
+      <c r="G13" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>78</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1155</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>600</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1580</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>183</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7930</v>
+      </c>
+      <c r="G14" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>83</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5755</v>
+      </c>
+      <c r="J14" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1510</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1390</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1915</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>24577</v>
+      </c>
+      <c r="E15" t="n">
+        <v>114</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11137</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9145</v>
+      </c>
+      <c r="J15" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>995</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1325</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1975</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18884</v>
+      </c>
+      <c r="E16" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9034</v>
+      </c>
+      <c r="G16" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>76</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5990</v>
+      </c>
+      <c r="J16" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1460</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>685</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1715</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>195</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22885</v>
+      </c>
+      <c r="E17" t="n">
+        <v>64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5180</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>970</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1380</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>19</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3910</v>
+      </c>
+      <c r="V17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>152</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>34040</v>
+      </c>
+      <c r="E18" t="n">
+        <v>96</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17470</v>
+      </c>
+      <c r="G18" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>86</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9325</v>
+      </c>
+      <c r="J18" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1595</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>20</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3590</v>
+      </c>
+      <c r="V18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>223</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18335</v>
+      </c>
+      <c r="E19" t="n">
+        <v>88</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8630</v>
+      </c>
+      <c r="G19" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>79</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6105</v>
+      </c>
+      <c r="J19" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" t="n">
+        <v>955</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>785</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>14</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1860</v>
+      </c>
+      <c r="V19" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>197</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18335</v>
+      </c>
+      <c r="E20" t="n">
+        <v>68</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8290</v>
+      </c>
+      <c r="G20" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>103</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J20" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1345</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>450</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1270</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>19401</v>
+      </c>
+      <c r="E21" t="n">
+        <v>115</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10636</v>
+      </c>
+      <c r="G21" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>46</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6070</v>
+      </c>
+      <c r="J21" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>635</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>410</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1650</v>
+      </c>
+      <c r="V21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>18875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>69</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7795</v>
+      </c>
+      <c r="G22" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>89</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6390</v>
+      </c>
+      <c r="J22" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>740</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1245</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>16</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2705</v>
+      </c>
+      <c r="V22" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>188</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>21670</v>
+      </c>
+      <c r="E23" t="n">
+        <v>83</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11650</v>
+      </c>
+      <c r="G23" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>77</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5855</v>
+      </c>
+      <c r="J23" t="n">
+        <v>27</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1100</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>13</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2045</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>188</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>21270</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8725</v>
+      </c>
+      <c r="G24" t="n">
+        <v>41</v>
+      </c>
+      <c r="H24" t="n">
+        <v>62</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8015</v>
+      </c>
+      <c r="J24" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>890</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1675</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1965</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>31776</v>
+      </c>
+      <c r="E25" t="n">
+        <v>99</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18846</v>
+      </c>
+      <c r="G25" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>70</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6785</v>
+      </c>
+      <c r="J25" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1225</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>19</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3695</v>
+      </c>
+      <c r="V25" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20310</v>
+      </c>
+      <c r="E26" t="n">
+        <v>70</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8415</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>103</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7210</v>
+      </c>
+      <c r="J26" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>865</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1405</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>14</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2415</v>
+      </c>
+      <c r="V26" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17385</v>
+      </c>
+      <c r="E27" t="n">
+        <v>90</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9705</v>
+      </c>
+      <c r="G27" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>69</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5125</v>
+      </c>
+      <c r="J27" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>510</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>915</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1130</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>178</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>21595</v>
+      </c>
+      <c r="E28" t="n">
+        <v>86</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9790</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>92</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7140</v>
+      </c>
+      <c r="J28" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1445</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1535</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>12</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1685</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>207</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>14945</v>
+      </c>
+      <c r="E29" t="n">
+        <v>63</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6985</v>
+      </c>
+      <c r="G29" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>83</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J29" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>975</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>385</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1040</v>
+      </c>
+      <c r="V29" t="n">
+        <v>7</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>164</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>16115</v>
+      </c>
+      <c r="E30" t="n">
+        <v>90</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9265</v>
+      </c>
+      <c r="G30" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>55</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3650</v>
+      </c>
+      <c r="J30" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>715</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>505</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>14</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1980</v>
+      </c>
+      <c r="V30" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>172</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>25575</v>
+      </c>
+      <c r="E31" t="n">
+        <v>82</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12025</v>
+      </c>
+      <c r="G31" t="n">
+        <v>47</v>
+      </c>
+      <c r="H31" t="n">
+        <v>60</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6430</v>
+      </c>
+      <c r="J31" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1085</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>22</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4780</v>
+      </c>
+      <c r="V31" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>181</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>23270</v>
+      </c>
+      <c r="E32" t="n">
+        <v>69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10795</v>
+      </c>
+      <c r="G32" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>57</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5595</v>
+      </c>
+      <c r="J32" t="n">
+        <v>24</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1130</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>11</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2925</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>14</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2825</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>158</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>18945</v>
+      </c>
+      <c r="E33" t="n">
+        <v>73</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9590</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>66</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4905</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>610</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>770</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>16</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3070</v>
+      </c>
+      <c r="V33" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>165</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>3651</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1746</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1745</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>160</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>96</v>
+      <c r="D34" t="n">
+        <v>654321</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F34" t="n">
+        <v>318291</v>
+      </c>
+      <c r="G34" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2275</v>
+      </c>
+      <c r="I34" t="n">
+        <v>193060</v>
+      </c>
+      <c r="J34" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>310</v>
+      </c>
+      <c r="L34" t="n">
+        <v>33955</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>171</v>
+      </c>
+      <c r="R34" t="n">
+        <v>39315</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>407</v>
+      </c>
+      <c r="U34" t="n">
+        <v>69700</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5726</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
